--- a/Task2/VIDEO A.xlsx
+++ b/Task2/VIDEO A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beamazedmedia-my.sharepoint.com/personal/sam_beamazed_com/Documents/Shared/MiscFiles/ML Engineer and Software Developer Tasks/ML Task/Task 2 &amp; 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAM_Test\Task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1C56A568-8E48-4785-955F-4CCE955151DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A450C5C9-6125-43A4-BE4B-6C91DD46AF1E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A280BE-F43E-4CAE-8CC1-D481A59C59C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15310" yWindow="1740" windowWidth="34420" windowHeight="18470" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -372,10 +372,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -384,7 +384,7 @@
     <col min="2" max="2" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,75 +392,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>104.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>98.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>84.52</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>82.07</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>80.63</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>80.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>79.64</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>79.23</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -468,7 +486,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -476,7 +494,7 @@
         <v>77.97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -484,7 +502,7 @@
         <v>77.290000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -492,7 +510,7 @@
         <v>77.08</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8247,8 +8265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136A935B-F8E0-4996-82E5-ED6D197A6BA4}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8273,43 +8291,67 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3">
+        <v>104.56</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44.46</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3">
+        <v>98.02</v>
+      </c>
+      <c r="C3" s="3">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <v>92.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>52.46</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <v>88</v>
+      </c>
+      <c r="C5" s="3">
+        <v>54.86</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>84.52</v>
+      </c>
+      <c r="C6" s="3">
+        <v>56.18</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <v>82.07</v>
+      </c>
+      <c r="C7" s="3">
+        <v>56.43</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">

--- a/Task2/VIDEO A.xlsx
+++ b/Task2/VIDEO A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAM_Test\Task2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAM_Test\ML Task\Task 2 &amp; 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A280BE-F43E-4CAE-8CC1-D481A59C59C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87705EDB-0BC3-4269-A68F-237F73CD5041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -148,10 +148,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -169,6 +170,4343 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compared to other videos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42529155730533685"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Organic!$C$8:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37.47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29.47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.08</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.97</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.07</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.61</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.04</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.46</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.06</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.58</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.28</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.69</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.68</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22.24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25.47</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.24</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.27</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.78</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.22</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>22.15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21.47</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21.55</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25.27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27.44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.33</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.69</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-6.05</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-6.94</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.79</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE91-47ED-9344-A5F22ED76F1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1338550800"/>
+        <c:axId val="1338553680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1338550800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Video</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Position %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1338553680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1338553680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Compare to Others % </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1338550800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Absolute</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> audience retention (%)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Organic!$B$8:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>80.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71.53</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70.22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67.28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66.47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>66.38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>66.67</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66.42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64.22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64.12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63.91</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>63.84</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63.21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62.82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62.45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62.21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>62.19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62.11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61.61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61.12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60.78</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60.49</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60.65</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60.31</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59.92</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59.72</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59.48</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>61.51</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>58.04</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57.92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57.53</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>57.13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>57.04</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56.97</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57.12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>57.23</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>57.12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56.98</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56.61</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>55.71</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>55.45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>55.48</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>56.77</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>56.32</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>55.79</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>55.64</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>55.39</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>55.81</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>55.18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>53.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>53.31</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52.77</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>51.88</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>38.78</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>30.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2558-4CB7-AADB-653906170BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1340536048"/>
+        <c:axId val="1340543728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1340536048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Video</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Position in %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340543728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1340543728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Value of </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Retention %</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340536048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Absolute</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Audience Retention and Comparison with others Videos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15723280871339987"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.859599452095423E-2"/>
+          <c:y val="9.8043041160217406E-2"/>
+          <c:w val="0.87356210820985314"/>
+          <c:h val="0.76752947891398249"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+              <a:headEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Organic!$B$8:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>80.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71.53</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70.22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67.28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66.47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>66.38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>66.67</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66.42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64.22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64.12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63.91</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>63.84</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63.21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62.82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62.45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62.21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>62.19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62.11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61.61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61.12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60.78</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60.49</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60.65</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60.31</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59.92</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59.72</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59.48</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>61.51</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>58.04</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57.92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57.53</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>57.13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>57.04</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56.97</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57.12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>57.23</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>57.12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56.98</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56.61</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>55.71</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>55.45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>55.48</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>56.77</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>56.32</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>55.79</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>55.64</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>55.39</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>55.81</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>55.18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>53.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>53.31</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52.77</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>51.88</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>38.78</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>30.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3ED0-47DC-8453-F960CBB84D7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+              <a:headEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Organic!$C$8:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37.47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29.47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.08</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.97</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.07</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.61</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.04</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.46</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.06</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.58</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.28</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.69</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.68</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22.24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25.47</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.24</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.27</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.78</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.22</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>22.15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21.47</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21.55</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25.27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27.44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.33</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.69</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-6.05</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-6.94</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.79</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3ED0-47DC-8453-F960CBB84D7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1340528848"/>
+        <c:axId val="1340543248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1340528848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t> Video Position in %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340543248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1340543248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Values in %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340528848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15575486831697163"/>
+          <c:y val="0.92892451628339567"/>
+          <c:w val="0.70835697381740781"/>
+          <c:h val="4.9303033821279027E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:prstDash val="sysDot"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>155574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFF84B7-73CB-E067-E467-A58305451FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C564BF70-5FFA-48AA-75FB-09465B98F76D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>73026</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2FF40D-FFD6-444F-86A0-EA90E878BC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,19 +4710,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -400,85 +4738,85 @@
         <v>104.56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>98.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>84.52</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>82.07</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>80.63</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>80.08</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>79.64</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>79.23</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -486,7 +4824,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -494,7 +4832,7 @@
         <v>77.97</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -502,7 +4840,7 @@
         <v>77.290000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -510,7 +4848,7 @@
         <v>77.08</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1241,7 +5579,7 @@
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
     <col min="3" max="3" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3472,7 +7810,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
     <col min="2" max="2" width="14.90625" customWidth="1"/>
     <col min="3" max="3" width="23.90625" customWidth="1"/>
   </cols>
@@ -8265,14 +12603,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136A935B-F8E0-4996-82E5-ED6D197A6BA4}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8291,10 +12629,10 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>104.56</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>44.46</v>
       </c>
     </row>
@@ -8302,10 +12640,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>98.02</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>49</v>
       </c>
     </row>
@@ -8313,10 +12651,10 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>92.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>52.46</v>
       </c>
     </row>
@@ -8324,10 +12662,10 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>88</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>54.86</v>
       </c>
     </row>
@@ -8335,10 +12673,10 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>84.52</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>56.18</v>
       </c>
     </row>
@@ -8346,10 +12684,10 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>82.07</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>56.43</v>
       </c>
     </row>
@@ -9389,6 +13727,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
